--- a/public/Reports/aclaraciones.xlsx
+++ b/public/Reports/aclaraciones.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
   <si>
     <t>No.</t>
   </si>
@@ -170,10 +170,10 @@
     <t>MX07</t>
   </si>
   <si>
-    <t>863243032071559</t>
-  </si>
-  <si>
-    <t>ZTE LTE BLADE V8 SE DORADO</t>
+    <t>867501041778993</t>
+  </si>
+  <si>
+    <t>HUAWEI LTE ROUTER B310S-518 BLANCO</t>
   </si>
   <si>
     <t>VICSA</t>
@@ -219,12 +219,6 @@
   </si>
   <si>
     <t>P01</t>
-  </si>
-  <si>
-    <t>867501041778993</t>
-  </si>
-  <si>
-    <t>HUAWEI LTE ROUTER B310S-518 BLANCO</t>
   </si>
 </sst>
 </file>
@@ -563,7 +557,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:BM3"/>
+  <dimension ref="A1:BM2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -750,19 +744,19 @@
         <v>51</v>
       </c>
       <c r="F2">
-        <v>70011364</v>
+        <v>70011902</v>
       </c>
       <c r="G2" t="s">
         <v>52</v>
       </c>
       <c r="L2">
-        <v>9511234567</v>
+        <v>9513506322</v>
       </c>
       <c r="M2" t="s">
         <v>53</v>
       </c>
       <c r="P2">
-        <v>2174.32</v>
+        <v>6363.48</v>
       </c>
       <c r="Q2" t="s">
         <v>54</v>
@@ -804,7 +798,7 @@
         <v>24</v>
       </c>
       <c r="AF2">
-        <v>2174.32</v>
+        <v>2089</v>
       </c>
       <c r="AK2" t="s">
         <v>65</v>
@@ -813,80 +807,6 @@
         <v>66</v>
       </c>
       <c r="AM2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:65">
-      <c r="C3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3">
-        <v>70011902</v>
-      </c>
-      <c r="G3" t="s">
-        <v>69</v>
-      </c>
-      <c r="L3">
-        <v>9513506322</v>
-      </c>
-      <c r="M3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P3">
-        <v>6363.48</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>54</v>
-      </c>
-      <c r="R3" t="s">
-        <v>55</v>
-      </c>
-      <c r="T3" t="s">
-        <v>56</v>
-      </c>
-      <c r="U3" t="s">
-        <v>57</v>
-      </c>
-      <c r="V3" t="s">
-        <v>58</v>
-      </c>
-      <c r="W3" t="s">
-        <v>59</v>
-      </c>
-      <c r="X3" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y3">
-        <v>69600</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD3">
-        <v>24</v>
-      </c>
-      <c r="AF3">
-        <v>2089</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM3" t="s">
         <v>67</v>
       </c>
     </row>

--- a/public/Reports/aclaraciones.xlsx
+++ b/public/Reports/aclaraciones.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
   <si>
     <t>No.</t>
   </si>
@@ -170,15 +170,63 @@
     <t>MX07</t>
   </si>
   <si>
+    <t>867501041079210</t>
+  </si>
+  <si>
+    <t>HUAWEI LTE ROUTER B310S-518 BLANCO de Pedro</t>
+  </si>
+  <si>
+    <t>VICSA</t>
+  </si>
+  <si>
+    <t>RORP880418621</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ RODRIGUEZ PEDRO</t>
+  </si>
+  <si>
+    <t>AV JUVENTUD</t>
+  </si>
+  <si>
+    <t>S/N</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>BARR LA PEÑA</t>
+  </si>
+  <si>
+    <t>ASUNCION NOCHI</t>
+  </si>
+  <si>
+    <t>ASUNCION NOCHIXTLAN</t>
+  </si>
+  <si>
+    <t>OAXACA</t>
+  </si>
+  <si>
+    <t>skaniahome@gmail.com</t>
+  </si>
+  <si>
+    <t>M47</t>
+  </si>
+  <si>
+    <t>PUE</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>P01</t>
+  </si>
+  <si>
     <t>867501041778993</t>
   </si>
   <si>
     <t>HUAWEI LTE ROUTER B310S-518 BLANCO</t>
   </si>
   <si>
-    <t>VICSA</t>
-  </si>
-  <si>
     <t>LOLA840425HH8</t>
   </si>
   <si>
@@ -195,30 +243,6 @@
   </si>
   <si>
     <t>LAS FLORES</t>
-  </si>
-  <si>
-    <t>ASUNCION NOCHI</t>
-  </si>
-  <si>
-    <t>ASUNCION NOCHIXTLAN</t>
-  </si>
-  <si>
-    <t>OAXACA</t>
-  </si>
-  <si>
-    <t>skaniahome@gmail.com</t>
-  </si>
-  <si>
-    <t>M47</t>
-  </si>
-  <si>
-    <t>PUE</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>P01</t>
   </si>
 </sst>
 </file>
@@ -557,7 +581,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:BM2"/>
+  <dimension ref="A1:BM3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -744,13 +768,13 @@
         <v>51</v>
       </c>
       <c r="F2">
-        <v>70011902</v>
+        <v>70011903</v>
       </c>
       <c r="G2" t="s">
         <v>52</v>
       </c>
       <c r="L2">
-        <v>9513506322</v>
+        <v>9512434283</v>
       </c>
       <c r="M2" t="s">
         <v>53</v>
@@ -807,6 +831,80 @@
         <v>66</v>
       </c>
       <c r="AM2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:65">
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3">
+        <v>70011902</v>
+      </c>
+      <c r="G3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3">
+        <v>9513506322</v>
+      </c>
+      <c r="M3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3">
+        <v>6363.48</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>70</v>
+      </c>
+      <c r="R3" t="s">
+        <v>71</v>
+      </c>
+      <c r="T3" t="s">
+        <v>72</v>
+      </c>
+      <c r="U3" t="s">
+        <v>73</v>
+      </c>
+      <c r="V3" t="s">
+        <v>74</v>
+      </c>
+      <c r="W3" t="s">
+        <v>75</v>
+      </c>
+      <c r="X3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y3">
+        <v>69600</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD3">
+        <v>24</v>
+      </c>
+      <c r="AF3">
+        <v>2089</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM3" t="s">
         <v>67</v>
       </c>
     </row>
